--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1941.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1941.xlsx
@@ -351,10 +351,10 @@
         <v>1.432631991799882</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.514612335086899</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1941.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1941.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.432631991799882</v>
+        <v>0.5027148723602295</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.633942186832428</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.9215063452720642</v>
       </c>
       <c r="D1">
-        <v>1.514612335086899</v>
+        <v>3.652648448944092</v>
       </c>
       <c r="E1">
-        <v>1.042337210980035</v>
+        <v>5.622573852539062</v>
       </c>
     </row>
   </sheetData>
